--- a/SISU/DOKUM/Lakimuutokset/lakipäivitykset_2022.xlsx
+++ b/SISU/DOKUM/Lakimuutokset/lakipäivitykset_2022.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{9E5A2480-A455-4428-A14B-A3FAA8FAA555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F983C519-72AB-4BE2-B7C9-B9D047D0BF0F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316F5C1D-053D-4EDD-9745-760C0F0C3EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14475" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{109D6DF6-5E99-4E07-841E-0AD0708445D7}"/>
+    <workbookView xWindow="14325" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="747" firstSheet="2" activeTab="11" xr2:uid="{109D6DF6-5E99-4E07-841E-0AD0708445D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Valikko" sheetId="30" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="1904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3148" uniqueCount="1905">
   <si>
     <t>Laki</t>
   </si>
@@ -5772,6 +5772,9 @@
   </si>
   <si>
     <t>https://finlex.fi/fi/laki/smur/2002/20021305</t>
+  </si>
+  <si>
+    <t>https://www.finlex.fi/fi/laki/alkup/2021/20211087</t>
   </si>
 </sst>
 </file>
@@ -5994,12 +5997,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -6007,6 +6004,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" quotePrefix="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -6048,10 +6051,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6353,7 +6352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC2A8E4-C471-4883-95B6-D2DC83BA9583}">
   <dimension ref="B2:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6381,7 +6380,7 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="25" t="s">
         <v>1881</v>
       </c>
     </row>
@@ -6392,12 +6391,12 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="25" t="s">
         <v>1882</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>1855</v>
       </c>
       <c r="C5" t="s">
@@ -6408,7 +6407,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="28"/>
+      <c r="B6" s="26"/>
       <c r="C6" t="s">
         <v>1856</v>
       </c>
@@ -6417,7 +6416,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="28"/>
+      <c r="B7" s="26"/>
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -6426,7 +6425,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -6435,7 +6434,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="28"/>
+      <c r="B9" s="26"/>
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -6444,7 +6443,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>1857</v>
       </c>
       <c r="C10" t="s">
@@ -6455,7 +6454,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="28"/>
+      <c r="B11" s="26"/>
       <c r="C11" t="s">
         <v>1858</v>
       </c>
@@ -6475,7 +6474,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>1860</v>
       </c>
       <c r="C13" t="s">
@@ -6486,7 +6485,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="28"/>
+      <c r="B14" s="26"/>
       <c r="C14" t="s">
         <v>1862</v>
       </c>
@@ -6495,7 +6494,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="28"/>
+      <c r="B15" s="26"/>
       <c r="C15" t="s">
         <v>1863</v>
       </c>
@@ -6504,7 +6503,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="26" t="s">
         <v>1864</v>
       </c>
       <c r="C16" t="s">
@@ -6515,7 +6514,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="28"/>
+      <c r="B17" s="26"/>
       <c r="C17" t="s">
         <v>10</v>
       </c>
@@ -6524,7 +6523,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="26" t="s">
         <v>1866</v>
       </c>
       <c r="C18" t="s">
@@ -6535,11 +6534,11 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="28"/>
+      <c r="B19" s="26"/>
       <c r="C19" t="s">
         <v>1867</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="25" t="s">
         <v>1896</v>
       </c>
     </row>
@@ -6555,7 +6554,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="26" t="s">
         <v>1869</v>
       </c>
       <c r="C21" t="s">
@@ -6566,7 +6565,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="28"/>
+      <c r="B22" s="26"/>
       <c r="C22" t="s">
         <v>12</v>
       </c>
@@ -6575,7 +6574,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="28"/>
+      <c r="B23" s="26"/>
       <c r="C23" t="s">
         <v>14</v>
       </c>
@@ -6584,7 +6583,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="28"/>
+      <c r="B24" s="26"/>
       <c r="C24" t="s">
         <v>1872</v>
       </c>
@@ -6593,7 +6592,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="28"/>
+      <c r="B25" s="26"/>
       <c r="C25" t="s">
         <v>1873</v>
       </c>
@@ -6602,7 +6601,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="28"/>
+      <c r="B26" s="26"/>
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -6622,7 +6621,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="26" t="s">
         <v>1876</v>
       </c>
       <c r="C28" t="s">
@@ -6633,7 +6632,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="28"/>
+      <c r="B29" s="26"/>
       <c r="C29" t="s">
         <v>18</v>
       </c>
@@ -6642,7 +6641,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="26" t="s">
         <v>1877</v>
       </c>
       <c r="C30" t="s">
@@ -6653,7 +6652,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="28"/>
+      <c r="B31" s="26"/>
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -6662,7 +6661,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="28"/>
+      <c r="B32" s="26"/>
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -6671,7 +6670,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="28"/>
+      <c r="B33" s="26"/>
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -6680,7 +6679,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="28"/>
+      <c r="B34" s="26"/>
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -6765,12 +6764,12 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
@@ -7578,12 +7577,12 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.35">
@@ -7966,11 +7965,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1417034-CAF2-4B2B-9312-40C017588C92}">
-  <dimension ref="B1:N19"/>
+  <dimension ref="B1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7979,25 +7978,27 @@
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74.7265625" customWidth="1"/>
     <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="86.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="49.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="J1" s="24" t="s">
+      <c r="I1" s="6"/>
+      <c r="K1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>71</v>
       </c>
@@ -8016,27 +8017,30 @@
       <c r="G2" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1</v>
       </c>
@@ -8055,12 +8059,15 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="J3">
         <f>IF(F3=0,0,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2</v>
       </c>
@@ -8079,21 +8086,27 @@
       <c r="G4">
         <v>2798</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I19" si="0">IF(F4=0,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="H4">
+        <v>2913</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J19" si="0">IF(F4=0,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
         <v>34</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="N4" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>3</v>
       </c>
@@ -8112,21 +8125,27 @@
       <c r="G5">
         <v>3610</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="H5">
+        <v>3758</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="N5" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>4</v>
       </c>
@@ -8145,21 +8164,27 @@
       <c r="G6">
         <v>4099</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="H6">
+        <v>4267</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
         <v>34</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="N6" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>5</v>
       </c>
@@ -8178,21 +8203,27 @@
       <c r="G7">
         <v>4588</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="H7">
+        <v>4777</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
         <v>34</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="N7" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>6</v>
       </c>
@@ -8211,21 +8242,27 @@
       <c r="G8">
         <v>5075</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="H8">
+        <v>5284</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
         <v>34</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="N8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>7</v>
       </c>
@@ -8244,21 +8281,27 @@
       <c r="G9">
         <v>189</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="H9">
+        <v>197</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
         <v>34</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="N9" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>8</v>
       </c>
@@ -8277,18 +8320,21 @@
       <c r="G10">
         <v>0.107</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="H10">
+        <v>0.107</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>9</v>
       </c>
@@ -8307,18 +8353,21 @@
       <c r="G11">
         <v>0.107</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="H11">
+        <v>0.107</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="M11" s="8" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>10</v>
       </c>
@@ -8337,18 +8386,21 @@
       <c r="G12">
         <v>0.107</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="H12">
+        <v>0.107</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>11</v>
       </c>
@@ -8367,18 +8419,21 @@
       <c r="G13">
         <v>0.107</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="H13">
+        <v>0.107</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="M13" s="8" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>12</v>
       </c>
@@ -8397,18 +8452,21 @@
       <c r="G14">
         <v>0.107</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="H14">
+        <v>0.107</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="M14" s="8" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>13</v>
       </c>
@@ -8427,18 +8485,21 @@
       <c r="G15">
         <v>0.2</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="M15" s="8" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>14</v>
       </c>
@@ -8457,18 +8518,21 @@
       <c r="G16">
         <v>0.4</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="H16">
+        <v>0.4</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="M16" s="8" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>15</v>
       </c>
@@ -8487,21 +8551,27 @@
       <c r="G17">
         <v>290</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="H17">
+        <v>295</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
         <v>1603</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="M17" s="8" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N17" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>16</v>
       </c>
@@ -8520,12 +8590,15 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>17</v>
       </c>
@@ -8544,42 +8617,45 @@
       <c r="G19">
         <v>27</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="H19">
+        <v>28</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
         <v>1603</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>1604</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P4:AG8">
-    <sortCondition ref="P4:P8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q4:AH8">
     <sortCondition ref="Q4:Q8"/>
+    <sortCondition ref="R4:R8"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L4" r:id="rId1" xr:uid="{D5B880B9-6E9D-4DFB-AE65-D0755036C013}"/>
-    <hyperlink ref="L5" r:id="rId2" xr:uid="{4A7BAAAE-0461-4FB8-9989-834C80EC3064}"/>
-    <hyperlink ref="L6" r:id="rId3" xr:uid="{88CF63C7-4882-41E6-9615-B016E6D129D8}"/>
-    <hyperlink ref="L7" r:id="rId4" xr:uid="{017C7B3F-88E3-4C5E-88F9-BF42289D4A59}"/>
-    <hyperlink ref="L8" r:id="rId5" xr:uid="{0A770ADB-E10E-490D-9361-7C616B896009}"/>
-    <hyperlink ref="L10" r:id="rId6" xr:uid="{95EC4308-3094-4435-ADBE-B0CBDF4B28C3}"/>
-    <hyperlink ref="L11" r:id="rId7" xr:uid="{AFAFC516-17AF-44AC-97C3-CFEEAA5827F4}"/>
-    <hyperlink ref="L12" r:id="rId8" xr:uid="{33C6AF4B-6B33-4979-8348-679C7574D64A}"/>
-    <hyperlink ref="L13" r:id="rId9" xr:uid="{0CFA28EB-703B-49E1-9F27-A8E999345B7D}"/>
-    <hyperlink ref="L14" r:id="rId10" xr:uid="{DDFAB235-1DB6-4FC2-948B-3994FC4B0F96}"/>
-    <hyperlink ref="L15" r:id="rId11" xr:uid="{D3ECD92D-797F-4DC1-9734-DA691191EFC4}"/>
-    <hyperlink ref="L17" r:id="rId12" location="P7" xr:uid="{FA0C9F65-4773-462D-A43E-C006C396C422}"/>
-    <hyperlink ref="L19" r:id="rId13" location="P7" xr:uid="{77ED01F3-D0CB-4D6C-9849-9A6AB110E41D}"/>
+    <hyperlink ref="M4" r:id="rId1" xr:uid="{D5B880B9-6E9D-4DFB-AE65-D0755036C013}"/>
+    <hyperlink ref="M5" r:id="rId2" xr:uid="{4A7BAAAE-0461-4FB8-9989-834C80EC3064}"/>
+    <hyperlink ref="M6" r:id="rId3" xr:uid="{88CF63C7-4882-41E6-9615-B016E6D129D8}"/>
+    <hyperlink ref="M7" r:id="rId4" xr:uid="{017C7B3F-88E3-4C5E-88F9-BF42289D4A59}"/>
+    <hyperlink ref="M8" r:id="rId5" xr:uid="{0A770ADB-E10E-490D-9361-7C616B896009}"/>
+    <hyperlink ref="M10" r:id="rId6" xr:uid="{95EC4308-3094-4435-ADBE-B0CBDF4B28C3}"/>
+    <hyperlink ref="M11" r:id="rId7" xr:uid="{AFAFC516-17AF-44AC-97C3-CFEEAA5827F4}"/>
+    <hyperlink ref="M12" r:id="rId8" xr:uid="{33C6AF4B-6B33-4979-8348-679C7574D64A}"/>
+    <hyperlink ref="M13" r:id="rId9" xr:uid="{0CFA28EB-703B-49E1-9F27-A8E999345B7D}"/>
+    <hyperlink ref="M14" r:id="rId10" xr:uid="{DDFAB235-1DB6-4FC2-948B-3994FC4B0F96}"/>
+    <hyperlink ref="M15" r:id="rId11" xr:uid="{D3ECD92D-797F-4DC1-9734-DA691191EFC4}"/>
+    <hyperlink ref="M17" r:id="rId12" location="P7" xr:uid="{FA0C9F65-4773-462D-A43E-C006C396C422}"/>
+    <hyperlink ref="M19" r:id="rId13" location="P7" xr:uid="{77ED01F3-D0CB-4D6C-9849-9A6AB110E41D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
@@ -8609,12 +8685,12 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
@@ -9622,12 +9698,12 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.35">
@@ -10176,12 +10252,12 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.35">
@@ -11769,12 +11845,12 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.35">
@@ -19942,7 +20018,7 @@
       <c r="E4" s="16">
         <v>1974</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="23">
         <v>2017</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -19962,7 +20038,7 @@
       <c r="E5" s="16">
         <v>1979</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="23">
         <v>2041</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -20349,12 +20425,12 @@
       <c r="B1" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="27" t="s">
         <v>1769</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
@@ -20935,12 +21011,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:72" x14ac:dyDescent="0.35">
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:72" x14ac:dyDescent="0.35">
@@ -22694,12 +22770,12 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:45" x14ac:dyDescent="0.35">
@@ -23736,12 +23812,12 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.35">
@@ -25746,16 +25822,16 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -26747,12 +26823,12 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.35">
@@ -27367,12 +27443,12 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.35">
@@ -29596,6 +29672,47 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DHDataCollectionTaxHTField xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DHDataCollectionTaxHTField>
+    <DHProjectTaxHTField xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DHProjectTaxHTField>
+    <DHStatDestinationTaxHTField xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DHStatDestinationTaxHTField>
+    <TaxCatchAll xmlns="eb806122-3b61-4629-a153-37a7e159d40d" xsi:nil="true"/>
+    <DHKeywordsTaxHTField xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DHKeywordsTaxHTField>
+    <DHDocumentTypeTaxHTField xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DHDocumentTypeTaxHTField>
+    <DHBusinessUnitTaxHTField xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DHBusinessUnitTaxHTField>
+    <DHStatisticsTaxHTField xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DHStatisticsTaxHTField>
+    <DHFunctionTaxHTField xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DHFunctionTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tilastokeskus dokumentti" ma:contentTypeID="0x01010015C64B13631AAD4A9E76B6827E10B99400222C7A11A667F048BB7E475387845398" ma:contentTypeVersion="16" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="10e1e01da848c9eea4b513effa126756">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="eb806122-3b61-4629-a153-37a7e159d40d" xmlns:ns3="c47393e0-5d8b-4651-8fb3-70dce98ec114" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e9fda3fd824de7afe999dda9aa0386b" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -29839,55 +29956,41 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DHDataCollectionTaxHTField xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DHDataCollectionTaxHTField>
-    <DHProjectTaxHTField xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DHProjectTaxHTField>
-    <DHStatDestinationTaxHTField xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DHStatDestinationTaxHTField>
-    <TaxCatchAll xmlns="eb806122-3b61-4629-a153-37a7e159d40d" xsi:nil="true"/>
-    <DHKeywordsTaxHTField xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DHKeywordsTaxHTField>
-    <DHDocumentTypeTaxHTField xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DHDocumentTypeTaxHTField>
-    <DHBusinessUnitTaxHTField xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DHBusinessUnitTaxHTField>
-    <DHStatisticsTaxHTField xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DHStatisticsTaxHTField>
-    <DHFunctionTaxHTField xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DHFunctionTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{043FE44E-04BB-4C37-9557-161074DEB262}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC65CD46-6C7B-4702-B2E3-0232FDA51B74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="eb806122-3b61-4629-a153-37a7e159d40d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E611E431-98F2-4F36-9DC4-151AFB72A9DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E611E431-98F2-4F36-9DC4-151AFB72A9DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC65CD46-6C7B-4702-B2E3-0232FDA51B74}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{043FE44E-04BB-4C37-9557-161074DEB262}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="eb806122-3b61-4629-a153-37a7e159d40d"/>
+    <ds:schemaRef ds:uri="c47393e0-5d8b-4651-8fb3-70dce98ec114"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>